--- a/functest/TestData.xlsx
+++ b/functest/TestData.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yositaka.koizumi\PythonEnv\env\functest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF198A5-984C-456C-964B-1F485D2D3E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -45,10 +28,16 @@
     <t>Expect</t>
   </si>
   <si>
+    <t>Flg</t>
+  </si>
+  <si>
     <t>@Attri(onclick：alert(‘ok’))</t>
   </si>
   <si>
     <t>@Ceiling(3.282)</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve">4Ceiling 処理開始
@@ -60,6 +49,9 @@
   </si>
   <si>
     <t>@Ceiling(3.282~@2)</t>
+  </si>
+  <si>
+    <t>3.29</t>
   </si>
   <si>
     <t xml:space="preserve">3.29Ceiling 処理開始
@@ -74,6 +66,9 @@
     <t>@Ceiling(32482~@-3)</t>
   </si>
   <si>
+    <t>33,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">33,000Ceiling 処理開始
 定義文:32482~@-3
 定義文:引数1:対象数値⇒32482
@@ -86,6 +81,9 @@
     <t>@Date(yydd)</t>
   </si>
   <si>
+    <t>2429</t>
+  </si>
+  <si>
     <t xml:space="preserve">2429Date 処理開始
 定義文:yydd
 定義文:引数1:日付計算式⇒yydd
@@ -95,6 +93,9 @@
   </si>
   <si>
     <t>@Date(D+3@yydd)</t>
+  </si>
+  <si>
+    <t>2401</t>
   </si>
   <si>
     <t xml:space="preserve">2401Date 処理開始
@@ -109,6 +110,9 @@
     <t>@Date(M-2@yyMMdd)</t>
   </si>
   <si>
+    <t>240529</t>
+  </si>
+  <si>
     <t xml:space="preserve">240529Date 処理開始
 定義文:M-2@yyMMdd
 定義文:引数1:日付計算式⇒M-2
@@ -121,6 +125,9 @@
     <t>@Creater(Result=#before~!$@NewCell@~#@Ctrls@テスト:test:ツールチップ;!{00:#,0.##}!color:blue!~=3:300px::2)</t>
   </si>
   <si>
+    <t>成功しました</t>
+  </si>
+  <si>
     <t xml:space="preserve">成功しましたCreater 処理開始
 定義文:Result=#before~!$@NewCell@~#@Ctrls@テスト:test:ツールチップ;!{00:#,0.##}!color:blue!~=3:300px::2
 成功しました
@@ -139,6 +146,9 @@
   </si>
   <si>
     <t>@DateDiff(24/1/5,24/1/13,Days)</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t xml:space="preserve">8DateDiff 処理開始
@@ -160,6 +170,9 @@
     <t>@Encode(pass~,Base64~,16~,unicode)</t>
   </si>
   <si>
+    <t>6300410042006800410048004d0041006300770041003d00</t>
+  </si>
+  <si>
     <t xml:space="preserve">6300410042006800410048004d0041006300770041003d00Encode 処理開始
 定義文:pass~,Base64~,16~,unicode
 結果:6300410042006800410048004d0041006300770041003d00
@@ -174,6 +187,9 @@
   </si>
   <si>
     <t>@Floor(3.782)</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">3Floor 処理開始
@@ -185,6 +201,9 @@
   </si>
   <si>
     <t>@GetRadioButtons(テスト１~;test1,テスト２~;test2\@color:red\@@DEMsgBox(テストです)~#111)</t>
+  </si>
+  <si>
+    <t>&lt;span id='111' style='box-sizing:border-box;color:red' onchange=""&gt;&lt;input id='111_0' type='radio' name='111' value='test1' onclick="var myV=document.getElementById('txtValues');if(myV!=null){ var myValue='~~,111~:' + this.value; if(this.value==''){myValue+='_No@n@e';} myV.value=myV.value.replace(myValue,''); myV.value += myValue; } " /&gt; &lt;label for='111_0'&gt;テスト１&lt;/label&gt;&lt;input id='111_1' type='radio' name='111' value='test2' onclick="var myV=document.getElementById('txtValues');if(myV!=null){ var myValue='~~,111~:' + this.value; if(this.value==''){myValue+='_No@n@e';} myV.value=myV.value.replace(myValue,''); myV.value += myValue; } " /&gt; &lt;label for='111_1'&gt;テスト２&lt;/label&gt;&lt;/span&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;span id='111' style='box-sizing:border-box;color:red' onchange=""&gt;&lt;input id='111_0' type='radio' name='111' value='test1' onclick="var myV=document.getElementById('txtValues');if(myV!=null){ var myValue='~~,111~:' + this.value; if(this.value==''){myValue+='_No@n@e';} myV.value=myV.value.replace(myValue,''); myV.value += myValue; } " /&gt; &lt;label for='111_0'&gt;テスト１&lt;/label&gt;&lt;input id='111_1' type='radio' name='111' value='test2' onclick="var myV=document.getElementById('txtValues');if(myV!=null){ var myValue='~~,111~:' + this.value; if(this.value==''){myValue+='_No@n@e';} myV.value=myV.value.replace(myValue,''); myV.value += myValue; } " /&gt; &lt;label for='111_1'&gt;テスト２&lt;/label&gt;&lt;/span&gt;MsgBox 処理開始
@@ -222,35 +241,96 @@
 </t>
   </si>
   <si>
-    <t>Flg</t>
-    <phoneticPr fontId="2"/>
+    <t>@GetDataTable(POSTGRE_tb=select * from 得意先テーブル|tableA)
+~-&gt;
+前：@GetString(tableA~!,~!~!~!)
+~-&gt;
+@AppendDataRow(tableA~,会社コード:A/会社名:会社名X/)
+~-&gt;
+後：@GetString(tableA~!,~!~!~!)</t>
+  </si>
+  <si>
+    <t>前：100,101,102後：100,101,102,A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@GetDataTable(POSTGRE_tb~=select * from 得意先テーブル where 会社区分='1'|tableA)
+~-&gt;
+@GetDataTable(POSTGRE_tb~=select * from 得意先テーブル where 会社区分='2'|tableB)
+~-&gt;
+@AppendDataTable_Row(tableA~,tableB~,*)
+~-&gt;
+@GetString(tableA~!,~!~!~!)
+@Dcs(tableA|@Count)
+ </t>
+  </si>
+  <si>
+    <t>100,101
+8</t>
+  </si>
+  <si>
+    <t>@GetImage(BULLSEYE.ICO~$##W10Autoedit.aspx~=~=NewWin~=~=~=~?Class=FuncTest##¥|テスト)</t>
+  </si>
+  <si>
+    <t>@GetImage(BULLSEYE.ICO~$##W11Autoedit.aspx~=~=NewWin~=~=~=~?Class=FuncTest#@DEMsgBox(テスト)#¥|テスト)</t>
+  </si>
+  <si>
+    <t>&lt;img src='../../../../Graphics/Funcs/BULLSEYE.ICO' onClick="OpenNewWin('W11Autoedit.aspx~=~=NewWin~=~=~=~?Class=FuncTest','1','','');" style='vertical-align:middle;border:0; height:18px; width:18px;cursor:pointer;' /&gt; &lt;span&gt;テスト&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>@GetImage(BULLSEYE.ICO~$##W10Autoedit.aspx~=~=NewWin~=~=~=~?Class=FuncTest#@DEMsgBox(テスト)#height:100px;width:101px;¥|テスト)</t>
+  </si>
+  <si>
+    <t>&lt;img src='../../../../Graphics/Funcs/BULLSEYE.ICO' onClick="OpenNewWin('W10Autoedit.aspx~=~=NewWin~=~=~=~?Class=FuncTest','1','','');" style='height:100px;width:101px;vertical-align:middle;border:0;cursor:pointer;' /&gt; &lt;span&gt;テスト&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@GetInCondit(AAA,BBB,CCC)　 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAA','BBB','CCC'　</t>
+  </si>
+  <si>
+    <t>@GetInCondit(AAA/BBB/CCC¥,/)</t>
+  </si>
+  <si>
+    <t>@GetIncre(Month ! 2022/1/1～2022/12/31 ! yyyy/MM)</t>
+  </si>
+  <si>
+    <t>2022/01,2022/02,2022/03,2022/04,2022/05,2022/06,2022/07,2022/08,2022/09,2022/10,2022/11,2022/12</t>
+  </si>
+  <si>
+    <t>@GetIncre(Month ! @Date() ! MM月)</t>
+  </si>
+  <si>
+    <t>01月,02月,03月,04月,05月,06月,07月,08月,09月,10月,11月,12月</t>
+  </si>
+  <si>
+    <t>@GetIncre(Day!@Date()!dd日!/)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,26 +351,22 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -299,26 +375,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -329,10 +414,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -370,69 +455,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,54 +543,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -513,7 +599,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -522,7 +608,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -531,7 +617,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -539,10 +625,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -571,7 +657,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -584,13 +670,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -608,275 +693,420 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="3">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21">
+      <c r="A28" s="3">
+        <v>21</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>